--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Le_Moult/Eugène_Le_Moult.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Le_Moult/Eugène_Le_Moult.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Le_Moult</t>
+          <t>Eugène_Le_Moult</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Le Moult, né le 31 décembre 1882 à Quimper et mort le 26 janvier 1965 à Paris 13e[1], est un naturaliste breton spécialisé en entomologie (en particulier les papillons) et un marchand d'insectes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Le Moult, né le 31 décembre 1882 à Quimper et mort le 26 janvier 1965 à Paris 13e, est un naturaliste breton spécialisé en entomologie (en particulier les papillons) et un marchand d'insectes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Le_Moult</t>
+          <t>Eugène_Le_Moult</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Le Moult était le fils de Léopold Le Moult[note 1], qui fut, de 1898 à 1908, directeur des Travaux publics du Pénitencier de Cayenne[2].
-Seul exportateur des papillons de Guyane, de 1903 à 1920, il fait de ce commerce le troisième de la contrée, après l’or et les bois précieux. Rentré à Paris en 1908, Le Moult possède trois ans plus tard la quatrième collection de papillons du monde après celles des musées de Paris, Washington et de Londres. Il vit de la vente de spécimens aux collectionneurs[3] et met le papillon à la mode en créant une véritable industrie d’objets décorés d’ailes découpées et collées. Il en vient bientôt à peindre des tableaux faits d'une palette de papillons[4]. 
-Pour augmenter ses collections, il a recruté des chasseurs parmi les bagnards. En 1917, par exemple, 217 colis ont été expédiés à la maison Le Moult à Paris[5].
-En 35 ans, Eugène Le Moult a collecté 4 500 000 papillons et insectes[6].
-Après sa mort, ses collections furent vendues aux enchères à Drouot. La plus grande partie de ses spécimens de Prepona furent acquis par le Musée d'histoire naturelle de Londres ou lui furent légués par un acheteur, Claude Lemaire, lui-même entomologiste[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Le Moult était le fils de Léopold Le Moult[note 1], qui fut, de 1898 à 1908, directeur des Travaux publics du Pénitencier de Cayenne.
+Seul exportateur des papillons de Guyane, de 1903 à 1920, il fait de ce commerce le troisième de la contrée, après l’or et les bois précieux. Rentré à Paris en 1908, Le Moult possède trois ans plus tard la quatrième collection de papillons du monde après celles des musées de Paris, Washington et de Londres. Il vit de la vente de spécimens aux collectionneurs et met le papillon à la mode en créant une véritable industrie d’objets décorés d’ailes découpées et collées. Il en vient bientôt à peindre des tableaux faits d'une palette de papillons. 
+Pour augmenter ses collections, il a recruté des chasseurs parmi les bagnards. En 1917, par exemple, 217 colis ont été expédiés à la maison Le Moult à Paris.
+En 35 ans, Eugène Le Moult a collecté 4 500 000 papillons et insectes.
+Après sa mort, ses collections furent vendues aux enchères à Drouot. La plus grande partie de ses spécimens de Prepona furent acquis par le Musée d'histoire naturelle de Londres ou lui furent légués par un acheteur, Claude Lemaire, lui-même entomologiste.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Le_Moult</t>
+          <t>Eugène_Le_Moult</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il publie plusieurs ouvrages dont Mes chasses aux Papillons (1955) où il relate ses activités en Guyane et Les Morphos d'Amérique du Sud et Centrale (1962-1963), en collaboration avec Pierre Réal. Il assure également la publication des revues Miscellanea Entomologica (fondée par Eugène Barthe (en) (1862-1945) et qui est ensuite reprise par Sciences Nat) et Novitates Entomologicae publiée de 1931 à 1946. Mais surtout il publie une édition française de l'ouvrage d'Adalbert Seitz (1860-1938) sous le titre Les Macrolépidoptères du globe en seize volumes et quatre suppléments.
 </t>
